--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H2">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I2">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J2">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N2">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O2">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P2">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q2">
-        <v>13.522179805592</v>
+        <v>6.415572354689999</v>
       </c>
       <c r="R2">
-        <v>121.699618250328</v>
+        <v>57.74015119221</v>
       </c>
       <c r="S2">
-        <v>0.030943482636108</v>
+        <v>0.0202566656259164</v>
       </c>
       <c r="T2">
-        <v>0.03094348263610801</v>
+        <v>0.02025666562591641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H3">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I3">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J3">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.277978</v>
       </c>
       <c r="O3">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P3">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q3">
-        <v>0.4150960582484445</v>
+        <v>0.27206873642</v>
       </c>
       <c r="R3">
-        <v>3.735864524236001</v>
+        <v>2.44861862778</v>
       </c>
       <c r="S3">
-        <v>0.0009498851409604728</v>
+        <v>0.0008590356582755469</v>
       </c>
       <c r="T3">
-        <v>0.0009498851409604731</v>
+        <v>0.000859035658275547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H4">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I4">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J4">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N4">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O4">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P4">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q4">
-        <v>0.2195301552553333</v>
+        <v>0.16286404335</v>
       </c>
       <c r="R4">
-        <v>1.975771397298</v>
+        <v>1.46577639015</v>
       </c>
       <c r="S4">
-        <v>0.0005023618710081264</v>
+        <v>0.0005142304203324842</v>
       </c>
       <c r="T4">
-        <v>0.0005023618710081266</v>
+        <v>0.0005142304203324843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I5">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J5">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N5">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O5">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P5">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q5">
-        <v>388.859030013624</v>
+        <v>281.4821496683659</v>
       </c>
       <c r="R5">
-        <v>3499.731270122616</v>
+        <v>2533.339347015294</v>
       </c>
       <c r="S5">
-        <v>0.8898456325913042</v>
+        <v>0.8887577709770463</v>
       </c>
       <c r="T5">
-        <v>0.8898456325913044</v>
+        <v>0.8887577709770466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I6">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J6">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.277978</v>
       </c>
       <c r="O6">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P6">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q6">
         <v>11.93696969672133</v>
@@ -818,10 +818,10 @@
         <v>107.432727270492</v>
       </c>
       <c r="S6">
-        <v>0.02731596679297912</v>
+        <v>0.03769004390643564</v>
       </c>
       <c r="T6">
-        <v>0.02731596679297913</v>
+        <v>0.03769004390643564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I7">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J7">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N7">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O7">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P7">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q7">
-        <v>6.313056360633999</v>
+        <v>7.145632297689999</v>
       </c>
       <c r="R7">
-        <v>56.817507245706</v>
+        <v>64.31069067921</v>
       </c>
       <c r="S7">
-        <v>0.01444648367974404</v>
+        <v>0.02256177253370704</v>
       </c>
       <c r="T7">
-        <v>0.01444648367974405</v>
+        <v>0.02256177253370704</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H8">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I8">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J8">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.877148</v>
+        <v>10.045207</v>
       </c>
       <c r="N8">
-        <v>41.631444</v>
+        <v>30.135621</v>
       </c>
       <c r="O8">
-        <v>0.9551716529386821</v>
+        <v>0.9365108453707793</v>
       </c>
       <c r="P8">
-        <v>0.9551716529386822</v>
+        <v>0.9365108453707794</v>
       </c>
       <c r="Q8">
-        <v>15.025033302548</v>
+        <v>8.708501349717</v>
       </c>
       <c r="R8">
-        <v>135.225299722932</v>
+        <v>78.376512147453</v>
       </c>
       <c r="S8">
-        <v>0.03438253771126985</v>
+        <v>0.02749640876781646</v>
       </c>
       <c r="T8">
-        <v>0.03438253771126985</v>
+        <v>0.02749640876781646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H9">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I9">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J9">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.277978</v>
       </c>
       <c r="O9">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="P9">
-        <v>0.02932130719941569</v>
+        <v>0.03971513502725754</v>
       </c>
       <c r="Q9">
-        <v>0.4612297860704445</v>
+        <v>0.369306248506</v>
       </c>
       <c r="R9">
-        <v>4.151068074634</v>
+        <v>3.323756236554</v>
       </c>
       <c r="S9">
-        <v>0.001055455265476096</v>
+        <v>0.001166055462546352</v>
       </c>
       <c r="T9">
-        <v>0.001055455265476096</v>
+        <v>0.001166055462546352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H10">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I10">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J10">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.225293</v>
+        <v>0.255005</v>
       </c>
       <c r="N10">
-        <v>0.675879</v>
+        <v>0.765015</v>
       </c>
       <c r="O10">
-        <v>0.01550703986190206</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="P10">
-        <v>0.01550703986190207</v>
+        <v>0.02377401960196297</v>
       </c>
       <c r="Q10">
-        <v>0.2439287112763333</v>
+        <v>0.221071739655</v>
       </c>
       <c r="R10">
-        <v>2.195358401487</v>
+        <v>1.989645656895</v>
       </c>
       <c r="S10">
-        <v>0.0005581943111498931</v>
+        <v>0.0006980166479234361</v>
       </c>
       <c r="T10">
-        <v>0.0005581943111498932</v>
+        <v>0.0006980166479234361</v>
       </c>
     </row>
   </sheetData>
